--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/estimate_g2.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/Age/estimate_g2.xlsx
@@ -371,17 +371,26 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.500000000000002</v>
+        <v>0.2726490299484157</v>
+      </c>
+      <c r="B2">
+        <v>0.004248371834482749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1.700000000000001</v>
+        <v>0.003192225197777245</v>
+      </c>
+      <c r="B3">
+        <v>0.0002284220796464572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-1.068589661201713e-15</v>
+        <v>8.436482389889598</v>
+      </c>
+      <c r="B4">
+        <v>0.2688698665824971</v>
       </c>
     </row>
   </sheetData>
